--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15320" windowHeight="7350" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15320" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,17 +133,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -306,11 +317,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="210438400"/>
-        <c:axId val="210444672"/>
+        <c:axId val="208685312"/>
+        <c:axId val="208691584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="210438400"/>
+        <c:axId val="208685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +349,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210444672"/>
+        <c:crossAx val="208691584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -346,7 +357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210444672"/>
+        <c:axId val="208691584"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -382,7 +393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210438400"/>
+        <c:crossAx val="208685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,11 +605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42858368"/>
-        <c:axId val="42859904"/>
+        <c:axId val="208755712"/>
+        <c:axId val="208761984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42858368"/>
+        <c:axId val="208755712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42859904"/>
+        <c:crossAx val="208761984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +645,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42859904"/>
+        <c:axId val="208761984"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -665,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42858368"/>
+        <c:crossAx val="208755712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -691,16 +702,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -726,16 +737,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>149225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1044,15 +1055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1119,8 +1130,16 @@
         <f t="shared" si="0"/>
         <v>0.47127272727272729</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>I2/H2</f>
+        <v>2.4292404233398899</v>
+      </c>
+      <c r="N2">
+        <f>K2/J2</f>
+        <v>1.6332703213610587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -1136,7 +1155,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2">
@@ -1152,7 +1171,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2">
@@ -1168,7 +1187,7 @@
         <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2">
@@ -1184,7 +1203,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2">
@@ -1200,7 +1219,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2">
@@ -1216,7 +1235,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2">
@@ -1231,8 +1250,12 @@
       <c r="F9" s="2">
         <v>0.39400000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>L2+L13+L25+L37+L49+N49+N37+N25+N13+N2</f>
+        <v>20.954303316872803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2">
@@ -1248,7 +1271,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2">
@@ -1264,7 +1287,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2">
@@ -1280,11 +1303,11 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2">
@@ -1315,8 +1338,16 @@
         <f t="shared" ref="K13" si="3">AVERAGE(F13:F23)</f>
         <v>0.79209090909090918</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <f>I13/H13</f>
+        <v>2.1419708704439695</v>
+      </c>
+      <c r="N13">
+        <f>K13/J13</f>
+        <v>1.3816999682841737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2">
@@ -1332,7 +1363,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2">
@@ -1347,8 +1378,12 @@
       <c r="F15" s="2">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <f>H13/J13</f>
+        <v>135.42308912147158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2">
@@ -1364,7 +1399,7 @@
         <v>0.749</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2">
@@ -1380,7 +1415,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2">
@@ -1396,7 +1431,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2">
@@ -1412,7 +1447,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2">
@@ -1428,7 +1463,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2">
@@ -1444,7 +1479,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2">
@@ -1460,7 +1495,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2">
@@ -1476,15 +1511,15 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>3.347</v>
       </c>
@@ -1513,8 +1548,16 @@
         <f t="shared" ref="K25" si="6">AVERAGE(F25:F35)</f>
         <v>14799.233333333332</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <f>I25/H25</f>
+        <v>2.2747328412471086</v>
+      </c>
+      <c r="N25">
+        <f>K25/J25</f>
+        <v>2.2786582031685043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>3.3130000000000002</v>
       </c>
@@ -1528,7 +1571,7 @@
         <v>14497.2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>3.3660000000000001</v>
       </c>
@@ -1542,7 +1585,7 @@
         <v>15066.6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>3.2639999999999998</v>
       </c>
@@ -1553,7 +1596,7 @@
         <v>6148.63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>3.2719999999999998</v>
       </c>
@@ -1564,7 +1607,7 @@
         <v>6341.03</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>3.266</v>
       </c>
@@ -1575,7 +1618,7 @@
         <v>6524.02</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>3.331</v>
       </c>
@@ -1586,7 +1629,7 @@
         <v>5614.45</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>3.339</v>
       </c>
@@ -1597,7 +1640,7 @@
         <v>6280.4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>3.2789999999999999</v>
       </c>
@@ -1608,7 +1651,7 @@
         <v>7127.48</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>3.2650000000000001</v>
       </c>
@@ -1619,7 +1662,7 @@
         <v>6505.35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>3.266</v>
       </c>
@@ -1627,7 +1670,7 @@
         <v>6.548</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>17.119</v>
       </c>
@@ -1664,8 +1707,16 @@
         <f t="shared" ref="K37" si="9">AVERAGE(F37:F47)</f>
         <v>7741.5320000000011</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f>I37/H37</f>
+        <v>2.0498243089659773</v>
+      </c>
+      <c r="N37">
+        <f>K37/J37</f>
+        <v>2.4966921710443954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>16.899000000000001</v>
       </c>
@@ -1679,7 +1730,7 @@
         <v>7391.93</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C39">
         <v>16.724</v>
       </c>
@@ -1693,7 +1744,7 @@
         <v>7921.55</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C40">
         <v>17.135000000000002</v>
       </c>
@@ -1707,7 +1758,7 @@
         <v>7192.08</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C41">
         <v>17.440999999999999</v>
       </c>
@@ -1721,7 +1772,7 @@
         <v>8576.94</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C42">
         <v>16.776</v>
       </c>
@@ -1732,7 +1783,7 @@
         <v>3305.91</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C43">
         <v>17.295999999999999</v>
       </c>
@@ -1743,7 +1794,7 @@
         <v>2964.97</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C44">
         <v>16.658000000000001</v>
       </c>
@@ -1754,7 +1805,7 @@
         <v>2858.18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>17.048999999999999</v>
       </c>
@@ -1765,7 +1816,7 @@
         <v>2838.56</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C46">
         <v>18.282</v>
       </c>
@@ -1776,7 +1827,7 @@
         <v>2835.02</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C47">
         <v>20.434999999999999</v>
       </c>
@@ -1787,7 +1838,7 @@
         <v>2832.87</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C49">
         <v>43.343000000000004</v>
       </c>
@@ -1824,8 +1875,16 @@
         <f t="shared" ref="K49" si="12">AVERAGE(F49:F59)</f>
         <v>7.3256363636363631</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <f>I49/H49</f>
+        <v>1.939927586654244</v>
+      </c>
+      <c r="N49">
+        <f>K49/J49</f>
+        <v>2.3282866223634784</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C50">
         <v>40.613999999999997</v>
       </c>
@@ -1839,7 +1898,7 @@
         <v>8.0440000000000005</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C51">
         <v>37.911000000000001</v>
       </c>
@@ -1853,7 +1912,7 @@
         <v>6.9240000000000004</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C52">
         <v>38.32</v>
       </c>
@@ -1867,7 +1926,7 @@
         <v>7.0789999999999997</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C53">
         <v>38.631</v>
       </c>
@@ -1881,7 +1940,7 @@
         <v>7.3479999999999999</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C54">
         <v>37.636000000000003</v>
       </c>
@@ -1895,7 +1954,7 @@
         <v>6.9279999999999999</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C55">
         <v>37.008000000000003</v>
       </c>
@@ -1909,7 +1968,7 @@
         <v>7.0679999999999996</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C56">
         <v>37.984999999999999</v>
       </c>
@@ -1923,7 +1982,7 @@
         <v>7.3570000000000002</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>37.335999999999999</v>
       </c>
@@ -1937,7 +1996,7 @@
         <v>7.4489999999999998</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C58">
         <v>37.69</v>
       </c>
@@ -1951,7 +2010,7 @@
         <v>7.0830000000000002</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C59">
         <v>37.481000000000002</v>
       </c>
@@ -1966,23 +2025,27 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B24" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2028,8 +2091,16 @@
         <f>E2/1000</f>
         <v>2102.942</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2">
+        <f>G2/F2</f>
+        <v>1.8194617355011118</v>
+      </c>
+      <c r="L2">
+        <f>I2/H2</f>
+        <v>2.0044245341466902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>157.946</v>
       </c>
@@ -2037,23 +2108,31 @@
         <v>267.89999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>155.78</v>
       </c>
       <c r="C4">
         <v>276.15800000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <f>20.9543+J2+J14+J25+L25+L14+L2</f>
+        <v>32.634497420137642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>156.31700000000001</v>
       </c>
       <c r="C5">
         <v>277.50099999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="M5">
+        <f>M4/16</f>
+        <v>2.0396560887586026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>157.87899999999999</v>
       </c>
@@ -2061,7 +2140,7 @@
         <v>294.23200000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>156.876</v>
       </c>
@@ -2069,7 +2148,7 @@
         <v>301.33600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>157.91900000000001</v>
       </c>
@@ -2077,7 +2156,7 @@
         <v>289.59500000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>157.072</v>
       </c>
@@ -2085,7 +2164,7 @@
         <v>336.351</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>156.99600000000001</v>
       </c>
@@ -2093,7 +2172,7 @@
         <v>285.25200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>156.922</v>
       </c>
@@ -2101,7 +2180,7 @@
         <v>271.32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>157.28200000000001</v>
       </c>
@@ -2109,7 +2188,7 @@
         <v>270.63600000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2122,7 +2201,7 @@
         <v>286.44745454545455</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>126.529</v>
       </c>
@@ -2151,8 +2230,16 @@
         <f>E14/1000</f>
         <v>190.23050000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <f>G14/F14</f>
+        <v>2.0085709232598221</v>
+      </c>
+      <c r="L14">
+        <f>I14/H14</f>
+        <v>1.978554534656596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>122.304</v>
       </c>
@@ -2160,7 +2247,7 @@
         <v>240.70400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>123.93899999999999</v>
       </c>
@@ -2168,7 +2255,7 @@
         <v>246.13800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>126.614</v>
       </c>
@@ -2176,7 +2263,7 @@
         <v>240.393</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>126.30500000000001</v>
       </c>
@@ -2184,7 +2271,7 @@
         <v>261.83999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>127.081</v>
       </c>
@@ -2192,7 +2279,7 @@
         <v>236.26300000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>125.295</v>
       </c>
@@ -2200,7 +2287,7 @@
         <v>236.93799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>129.20500000000001</v>
       </c>
@@ -2208,7 +2295,7 @@
         <v>236.05500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>129.501</v>
       </c>
@@ -2216,7 +2303,7 @@
         <v>253.17400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>124.11799999999999</v>
       </c>
@@ -2224,7 +2311,7 @@
         <v>341.00900000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24">
         <f>AVERAGE(B14:B23)</f>
         <v>126.0891</v>
@@ -2234,7 +2321,7 @@
         <v>253.25890000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2266,8 +2353,16 @@
         <f>E25/1000</f>
         <v>870.12300000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25">
+        <f>G25/F25</f>
+        <v>1.8627174767632995</v>
+      </c>
+      <c r="L25">
+        <f>I25/H25</f>
+        <v>2.0064682158101181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>1153.55</v>
       </c>
@@ -2275,7 +2370,7 @@
         <v>2137.5300000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>1101.52</v>
       </c>
@@ -2283,7 +2378,7 @@
         <v>2047.98</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>1106.3800000000001</v>
       </c>
@@ -2291,7 +2386,7 @@
         <v>2065.7600000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>1130.31</v>
       </c>
@@ -2299,7 +2394,7 @@
         <v>2040.93</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>1123.26</v>
       </c>
@@ -2307,7 +2402,7 @@
         <v>2242.34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>1154.3699999999999</v>
       </c>
@@ -2315,7 +2410,7 @@
         <v>2024.86</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>1157.1600000000001</v>
       </c>
